--- a/Insert_Text_Into_Cell_In_SpreadSheet_In_Excel/Excel_Folder/sample.xlsx
+++ b/Insert_Text_Into_Cell_In_SpreadSheet_In_Excel/Excel_Folder/sample.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <x:workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD0FEB2-4265-40D7-B875-8A75E7EDDBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F371911E-93D7-43F8-BD57-4C414028DFAB}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F371911E-93D7-43F8-BD57-4C414028DFAB}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Sheet2" sheetId="2" r:id="R59e06f8eafc640ec"/>
+  </x:sheets>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -30,9 +31,17 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,4 +419,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetData>
+    <x:row r="2">
+      <x:c r="B2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+</x:worksheet>
 </file>
--- a/Insert_Text_Into_Cell_In_SpreadSheet_In_Excel/Excel_Folder/sample.xlsx
+++ b/Insert_Text_Into_Cell_In_SpreadSheet_In_Excel/Excel_Folder/sample.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <x:workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OPENXML_C#\Document_Generation_Using_OpenXML_With_Font_Syling\Insert_Text_Into_Cell_In_SpreadSheet_In_Excel\Excel_Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD0FEB2-4265-40D7-B875-8A75E7EDDBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F371911E-93D7-43F8-BD57-4C414028DFAB}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <x:sheet name="Sheet2" sheetId="2" r:id="R59e06f8eafc640ec"/>
-  </x:sheets>
-  <x:calcPr calcId="191029"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1E04E-6AD9-4379-96C2-FBF4D8C5539A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F371911E-93D7-43F8-BD57-4C414028DFAB}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -31,17 +30,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:si>
-    <x:t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor</x:t>
-  </x:si>
-</x:sst>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,22 +404,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3870B06-F96C-440A-83BF-1D244E331FA0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetData>
-    <x:row r="2">
-      <x:c r="B2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-</x:worksheet>
 </file>
--- a/Insert_Text_Into_Cell_In_SpreadSheet_In_Excel/Excel_Folder/sample.xlsx
+++ b/Insert_Text_Into_Cell_In_SpreadSheet_In_Excel/Excel_Folder/sample.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <x:workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OPENXML_C#\Document_Generation_Using_OpenXML_With_Font_Syling\Insert_Text_Into_Cell_In_SpreadSheet_In_Excel\Excel_Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1E04E-6AD9-4379-96C2-FBF4D8C5539A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F371911E-93D7-43F8-BD57-4C414028DFAB}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD0FEB2-4265-40D7-B875-8A75E7EDDBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F371911E-93D7-43F8-BD57-4C414028DFAB}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Sheet2" sheetId="2" r:id="R24691732966d4f40"/>
+  </x:sheets>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -30,9 +31,17 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,12 +413,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3870B06-F96C-440A-83BF-1D244E331FA0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetData>
+    <x:row r="2">
+      <x:c r="B2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+</x:worksheet>
 </file>